--- a/Data/BrandLogoCarPhoto.xlsx
+++ b/Data/BrandLogoCarPhoto.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="LOGO" sheetId="1" r:id="rId1"/>
@@ -1274,9 +1274,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -1560,7 +1558,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1858,15 +1856,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D155"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20.81640625" style="7" customWidth="1"/>
     <col min="2" max="2" width="27.26953125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="97.7265625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="112.26953125" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="8.7265625" style="9"/>
   </cols>
   <sheetData>
@@ -2102,7 +2098,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
         <v>41</v>
       </c>
@@ -2113,7 +2109,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>41</v>
       </c>
@@ -2124,7 +2120,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>41</v>
       </c>
@@ -2135,7 +2131,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
         <v>41</v>
       </c>
@@ -2487,7 +2483,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="6" t="s">
         <v>48</v>
       </c>
@@ -2498,7 +2494,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="6" t="s">
         <v>48</v>
       </c>
@@ -2509,7 +2505,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="6" t="s">
         <v>48</v>
       </c>
@@ -2630,7 +2626,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="6" t="s">
         <v>31</v>
       </c>
@@ -2641,7 +2637,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="6" t="s">
         <v>31</v>
       </c>
@@ -2652,7 +2648,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="6" t="s">
         <v>31</v>
       </c>
@@ -2663,7 +2659,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="6" t="s">
         <v>31</v>
       </c>
@@ -2674,7 +2670,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" s="6" t="s">
         <v>31</v>
       </c>
@@ -2685,7 +2681,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" s="6" t="s">
         <v>31</v>
       </c>
@@ -2696,7 +2692,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" s="6" t="s">
         <v>31</v>
       </c>
@@ -2707,7 +2703,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" s="6" t="s">
         <v>31</v>
       </c>
@@ -2718,7 +2714,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" s="6" t="s">
         <v>31</v>
       </c>
@@ -2729,7 +2725,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" s="6" t="s">
         <v>31</v>
       </c>
@@ -2740,7 +2736,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" s="6" t="s">
         <v>31</v>
       </c>
@@ -2751,7 +2747,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" s="6" t="s">
         <v>31</v>
       </c>
@@ -2762,7 +2758,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" s="6" t="s">
         <v>31</v>
       </c>
@@ -2773,7 +2769,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" s="6" t="s">
         <v>31</v>
       </c>
@@ -2795,7 +2791,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" s="6" t="s">
         <v>8</v>
       </c>
@@ -2806,7 +2802,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" s="6" t="s">
         <v>8</v>
       </c>
@@ -2817,7 +2813,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" s="6" t="s">
         <v>8</v>
       </c>
@@ -3070,7 +3066,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" s="6" t="s">
         <v>28</v>
       </c>
@@ -3147,7 +3143,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:3" ht="26" x14ac:dyDescent="0.35">
       <c r="A117" s="6" t="s">
         <v>10</v>
       </c>
@@ -3268,7 +3264,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" s="6" t="s">
         <v>57</v>
       </c>
@@ -3345,7 +3341,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135" s="6" t="s">
         <v>4</v>
       </c>
@@ -3411,7 +3407,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A141" s="6" t="s">
         <v>44</v>
       </c>
@@ -3422,7 +3418,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A142" s="6" t="s">
         <v>44</v>
       </c>
@@ -3433,7 +3429,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A143" s="6" t="s">
         <v>44</v>
       </c>
@@ -3444,7 +3440,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144" s="6" t="s">
         <v>44</v>
       </c>
@@ -3455,7 +3451,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145" s="6" t="s">
         <v>44</v>
       </c>
@@ -3466,7 +3462,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146" s="6" t="s">
         <v>44</v>
       </c>
@@ -3477,7 +3473,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147" s="6" t="s">
         <v>44</v>
       </c>
@@ -3488,7 +3484,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148" s="6" t="s">
         <v>44</v>
       </c>
@@ -3499,7 +3495,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A149" s="6" t="s">
         <v>44</v>
       </c>
@@ -3510,7 +3506,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A150" s="6" t="s">
         <v>44</v>
       </c>
@@ -3521,7 +3517,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151" s="6" t="s">
         <v>44</v>
       </c>
@@ -3578,160 +3574,160 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/ACURA/ACURA_MDX.jpg"/>
-    <hyperlink ref="C2" r:id="rId2" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/ACURA/ACURA_OTHER.jpg"/>
-    <hyperlink ref="C4" r:id="rId3" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/AUDI/AUDI_A3.jpg"/>
-    <hyperlink ref="C5" r:id="rId4" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/AUDI/AUDI_A4.jpg"/>
-    <hyperlink ref="C6" r:id="rId5" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/AUDI/AUDI_A5.jpg"/>
-    <hyperlink ref="C7" r:id="rId6" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/AUDI/AUDI_A6.jpg"/>
-    <hyperlink ref="C8" r:id="rId7" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/AUDI/AUDI_A7.jpg"/>
-    <hyperlink ref="C9" r:id="rId8" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/AUDI/AUDI_A8.jpg"/>
-    <hyperlink ref="C10" r:id="rId9" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/AUDI/AUDI_OTHER.jpg"/>
-    <hyperlink ref="C11" r:id="rId10" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/AUDI/AUDI_Q3.jpg"/>
-    <hyperlink ref="C12" r:id="rId11" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/AUDI/AUDI_Q5.jpg"/>
-    <hyperlink ref="C13" r:id="rId12" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/AUDI/AUDI_Q7.jpg"/>
-    <hyperlink ref="C14" r:id="rId13" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/BMW/BMW_3 SERIES.jpg"/>
-    <hyperlink ref="C15" r:id="rId14" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/BMW/BMW_5 SERIES.jpg"/>
-    <hyperlink ref="C16" r:id="rId15" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/BMW/BMW_7 SERIES.jpg"/>
-    <hyperlink ref="C17" r:id="rId16" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/BMW/BMW_OTHER.jpg"/>
-    <hyperlink ref="C18" r:id="rId17" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/BMW/BMW_X1.jpg"/>
-    <hyperlink ref="C19" r:id="rId18" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/BMW/BMW_X3.jpg"/>
-    <hyperlink ref="C20" r:id="rId19" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/BMW/BMW_X5.jpg"/>
-    <hyperlink ref="C21" r:id="rId20" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/BMW/BMW_X6.jpg"/>
-    <hyperlink ref="C22" r:id="rId21" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/CHEVROLET/CHEVROLET_CAPTIVA.jpg"/>
-    <hyperlink ref="C23" r:id="rId22" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/CHEVROLET/CHEVROLET_OTHER.jpg"/>
-    <hyperlink ref="C24" r:id="rId23" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/CHEVROLET/CHEVROLET_CRUZE.jpg"/>
-    <hyperlink ref="C25" r:id="rId24" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/CHEVROLET/CHEVROLET_ORLANDO.jpg"/>
-    <hyperlink ref="C26" r:id="rId25" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/CITROEN/CITROEN_BERLINGO.jpg"/>
-    <hyperlink ref="C27" r:id="rId26" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/CITROEN/CITROEN_C4.jpg"/>
-    <hyperlink ref="C28" r:id="rId27" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/CITROEN/CITROEN_C-ELYSEE.jpg"/>
-    <hyperlink ref="C29" r:id="rId28" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/CITROEN/CITROEN_OTHER.jpg"/>
-    <hyperlink ref="C30" r:id="rId29" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/FORD/FORD_FIESTA.jpg"/>
-    <hyperlink ref="C31" r:id="rId30" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/FORD/FORD_FOCUS.jpg"/>
-    <hyperlink ref="C32" r:id="rId31" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/FORD/FORD_OTHER.jpg"/>
-    <hyperlink ref="C33" r:id="rId32" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/FORD/FORD_KUGA.jpg"/>
-    <hyperlink ref="C34" r:id="rId33" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/FORD/FORD_MONDEO.jpg"/>
-    <hyperlink ref="C35" r:id="rId34" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/HONDA/HONDA_ACCORD.jpg"/>
-    <hyperlink ref="C36" r:id="rId35" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/HONDA/HONDA_CIVIC.jpg"/>
-    <hyperlink ref="C37" r:id="rId36" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/HONDA/HONDA_CR-V.jpg"/>
-    <hyperlink ref="C38" r:id="rId37" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/HONDA/HONDA_OTHER.jpg"/>
-    <hyperlink ref="C39" r:id="rId38" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/HYUNDAI/HYUNDAI_ACCENT.jpg"/>
-    <hyperlink ref="C40" r:id="rId39" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/HYUNDAI/HYUNDAI_OTHER.jpg"/>
-    <hyperlink ref="C41" r:id="rId40" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/HYUNDAI/HYUNDAI_IX35.jpg"/>
-    <hyperlink ref="C42" r:id="rId41" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/HYUNDAI/HYUNDAI_SANTA FE.jpg"/>
-    <hyperlink ref="C43" r:id="rId42" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/HYUNDAI/HYUNDAI_SOLARIS.jpg"/>
-    <hyperlink ref="C44" r:id="rId43" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/HYUNDAI/HYUNDAI_TUCSON.jpg"/>
-    <hyperlink ref="C45" r:id="rId44" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/INFINITI/INFINITI_FX.jpg"/>
-    <hyperlink ref="C46" r:id="rId45" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/INFINITI/INFINITI_OTHER.jpg"/>
-    <hyperlink ref="C47" r:id="rId46" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/INFINITI/INFINITI_QX.jpg"/>
-    <hyperlink ref="C48" r:id="rId47" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/JAGUAR/JAGUAR_OTHER.jpg"/>
-    <hyperlink ref="C49" r:id="rId48" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/JEEP/JEEP_OTHER.jpg"/>
-    <hyperlink ref="C50" r:id="rId49" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/KIA/KIA_CEE’D.jpg"/>
-    <hyperlink ref="C51" r:id="rId50" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/KIA/KIA_OTHER.jpg"/>
-    <hyperlink ref="C52" r:id="rId51" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/KIA/KIA_RIO.jpg"/>
-    <hyperlink ref="C53" r:id="rId52" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/KIA/KIA_SORENTO.jpg"/>
-    <hyperlink ref="C54" r:id="rId53" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/KIA/KIA_SPORTAGE.jpg"/>
-    <hyperlink ref="C55" r:id="rId54" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/LADA/LADA_OTHER.jpg"/>
-    <hyperlink ref="C56" r:id="rId55" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/LADA/LADA_LARGUS.jpg"/>
-    <hyperlink ref="C57" r:id="rId56" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/LAND ROVER/LAND ROVER_DISCOVERY.jpg"/>
-    <hyperlink ref="C58" r:id="rId57" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/LAND ROVER/LAND ROVER_FREELANDER.jpg"/>
-    <hyperlink ref="C59" r:id="rId58" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/LAND ROVER/LAND ROVER_OTHER.jpg"/>
-    <hyperlink ref="C60" r:id="rId59" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/LAND ROVER/LAND ROVER_RANGE ROVER.jpg"/>
-    <hyperlink ref="C61" r:id="rId60" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/LEXUS/LEXUS_GX.jpg"/>
-    <hyperlink ref="C62" r:id="rId61" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/LEXUS/LEXUS_OTHER.jpg"/>
-    <hyperlink ref="C63" r:id="rId62" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/LEXUS/LEXUS_LX.jpg"/>
-    <hyperlink ref="C64" r:id="rId63" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/LEXUS/LEXUS_NX.jpg"/>
-    <hyperlink ref="C65" r:id="rId64" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/LEXUS/LEXUS_RX.jpg"/>
-    <hyperlink ref="C66" r:id="rId65" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/MAZDA/MAZDA_3.jpg"/>
-    <hyperlink ref="C67" r:id="rId66" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/MAZDA/MAZDA_6.jpg"/>
-    <hyperlink ref="C68" r:id="rId67" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/MAZDA/MAZDA_CX-5.jpg"/>
-    <hyperlink ref="C69" r:id="rId68" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/MAZDA/MAZDA_OTHER.jpg"/>
-    <hyperlink ref="C70" r:id="rId69" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/MERCEDES-BENZ/MERCEDES-BENZ_C-CLASS.jpg"/>
-    <hyperlink ref="C71" r:id="rId70" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/MERCEDES-BENZ/MERCEDES-BENZ_CLA-CLASS.jpg"/>
-    <hyperlink ref="C72" r:id="rId71" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/MERCEDES-BENZ/MERCEDES-BENZ_CLS-CLASS.jpg"/>
-    <hyperlink ref="C73" r:id="rId72" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/MERCEDES-BENZ/MERCEDES-BENZ_E-CLASS.jpg"/>
-    <hyperlink ref="C74" r:id="rId73" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/MERCEDES-BENZ/MERCEDES-BENZ_G-CLASS.jpg"/>
-    <hyperlink ref="C75" r:id="rId74" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/MERCEDES-BENZ/MERCEDES-BENZ_GLA-CLASS.jpg"/>
-    <hyperlink ref="C76" r:id="rId75" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/MERCEDES-BENZ/MERCEDES-BENZ_GLC-CLASS.jpg"/>
-    <hyperlink ref="C77" r:id="rId76" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/MERCEDES-BENZ/MERCEDES-BENZ_GLE-CLASS.jpg"/>
-    <hyperlink ref="C78" r:id="rId77" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/MERCEDES-BENZ/MERCEDES-BENZ_GLK-CLASS.jpg"/>
-    <hyperlink ref="C79" r:id="rId78" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/MERCEDES-BENZ/MERCEDES-BENZ_GL-CLASS.jpg"/>
-    <hyperlink ref="C80" r:id="rId79" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/MERCEDES-BENZ/MERCEDES-BENZ_OTHER.jpg"/>
-    <hyperlink ref="C81" r:id="rId80" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/MERCEDES-BENZ/MERCEDES-BENZ_M-CLASS.jpg"/>
-    <hyperlink ref="C82" r:id="rId81" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/MERCEDES-BENZ/MERCEDES-BENZ_S-CLASS.jpg"/>
-    <hyperlink ref="C83" r:id="rId82" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/MERCEDES-BENZ/MERCEDES-BENZ_V-CLASS.jpg"/>
-    <hyperlink ref="C84" r:id="rId83" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/MITSUBISHI/MITSUBISHI_ASX.jpg"/>
-    <hyperlink ref="C85" r:id="rId84" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/MITSUBISHI/MITSUBISHI_OTHER.jpg"/>
-    <hyperlink ref="C86" r:id="rId85" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/MITSUBISHI/MITSUBISHI_OUTLANDER.jpg"/>
-    <hyperlink ref="C87" r:id="rId86" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/MITSUBISHI/MITSUBISHI_PAJERO.jpg"/>
-    <hyperlink ref="C88" r:id="rId87" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/NISSAN/NISSAN_ALMERA.jpg"/>
-    <hyperlink ref="C89" r:id="rId88" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/NISSAN/NISSAN_JUKE.jpg"/>
-    <hyperlink ref="C90" r:id="rId89" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/NISSAN/NISSAN_MURANO.jpg"/>
-    <hyperlink ref="C91" r:id="rId90" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/NISSAN/NISSAN_OTHER.jpg"/>
-    <hyperlink ref="C92" r:id="rId91" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/NISSAN/NISSAN_PATHFINDER.jpg"/>
-    <hyperlink ref="C93" r:id="rId92" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/NISSAN/NISSAN_QASHQAI.jpg"/>
-    <hyperlink ref="C94" r:id="rId93" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/NISSAN/NISSAN_SENTRA.jpg"/>
-    <hyperlink ref="C95" r:id="rId94" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/NISSAN/NISSAN_TEANA.jpg"/>
-    <hyperlink ref="C96" r:id="rId95" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/NISSAN/NISSAN_TERRANO.jpg"/>
-    <hyperlink ref="C97" r:id="rId96" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/NISSAN/NISSAN_X-TRAIL.jpg"/>
-    <hyperlink ref="C98" r:id="rId97" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/OPEL/OPEL_ASTRA.jpg"/>
-    <hyperlink ref="C99" r:id="rId98" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/OPEL/OPEL_INSIGNIA.jpg"/>
-    <hyperlink ref="C100" r:id="rId99" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/OPEL/OPEL_MOKKA.jpg"/>
-    <hyperlink ref="C101" r:id="rId100" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/OPEL/OPEL_OTHER.jpg"/>
-    <hyperlink ref="C102" r:id="rId101" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/OTHER CARS/OTHER.jpg"/>
-    <hyperlink ref="C103" r:id="rId102" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/PEUGEOT/PEUGEOT_208.jpg"/>
-    <hyperlink ref="C104" r:id="rId103" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/PEUGEOT/PEUGEOT_3008.jpg"/>
-    <hyperlink ref="C105" r:id="rId104" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/PEUGEOT/PEUGEOT_408.jpg"/>
-    <hyperlink ref="C106" r:id="rId105" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/PEUGEOT/PEUGEOT_PARTNER.jpg"/>
-    <hyperlink ref="C107" r:id="rId106" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/PEUGEOT/PEUGEOT_OTHER.jpg"/>
-    <hyperlink ref="C108" r:id="rId107" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/PORSCHE/PORSCHE_CAYENNE.jpg"/>
-    <hyperlink ref="C109" r:id="rId108" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/PORSCHE/PORSCHE_MACAN.jpg"/>
-    <hyperlink ref="C110" r:id="rId109" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/PORSCHE/PORSCHE_PANAMERA.jpg"/>
-    <hyperlink ref="C111" r:id="rId110" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/PORSCHE/PORSCHE_OTHER.jpg"/>
-    <hyperlink ref="C112" r:id="rId111" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/RENAULT/RENAULT_DOKKER.jpg"/>
-    <hyperlink ref="C113" r:id="rId112" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/RENAULT/RENAULT_DUSTER.jpg"/>
-    <hyperlink ref="C114" r:id="rId113" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/RENAULT/RENAULT_LOGAN.jpg"/>
-    <hyperlink ref="C115" r:id="rId114" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/RENAULT/RENAULT_MEGANE.jpg"/>
-    <hyperlink ref="C116" r:id="rId115" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/RENAULT/RENAULT_OTHER.jpg"/>
-    <hyperlink ref="C117" r:id="rId116" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/RENAULT/RENAULT_SANDERO STEPWAY.jpg"/>
-    <hyperlink ref="C118" r:id="rId117" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/SKODA/SKODA_FABIA.jpg"/>
-    <hyperlink ref="C119" r:id="rId118" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/SKODA/SKODA_OCTAVIA.jpg"/>
-    <hyperlink ref="C120" r:id="rId119" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/SKODA/SKODA_RAPID.jpg"/>
-    <hyperlink ref="C121" r:id="rId120" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/SKODA/SKODA_OTHER.jpg"/>
-    <hyperlink ref="C122" r:id="rId121" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/SKODA/SKODA_SUPERB.jpg"/>
-    <hyperlink ref="C123" r:id="rId122" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/SKODA/SKODA_YETI.jpg"/>
-    <hyperlink ref="C124" r:id="rId123" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/SUBARU/SUBARU_FORESTER.jpg"/>
-    <hyperlink ref="C125" r:id="rId124" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/SUBARU/SUBARU_OUTBACK.jpg"/>
-    <hyperlink ref="C126" r:id="rId125" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/SUBARU/SUBARU_OTHER.jpg"/>
-    <hyperlink ref="C127" r:id="rId126" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/SUBARU/SUBARU_XV.jpg"/>
-    <hyperlink ref="C128" r:id="rId127" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/SUZUKI/SUZUKI_GRAND VITARA.jpg"/>
-    <hyperlink ref="C129" r:id="rId128" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/SUZUKI/SUZUKI_OTHER.jpg"/>
-    <hyperlink ref="C130" r:id="rId129" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/SUZUKI/SUZUKI_SX4.jpg"/>
-    <hyperlink ref="C131" r:id="rId130" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/TOYOTA/TOYOTA_AURIS.jpg"/>
-    <hyperlink ref="C132" r:id="rId131" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/TOYOTA/TOYOTA_AVENSIS.jpg"/>
-    <hyperlink ref="C133" r:id="rId132" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/TOYOTA/TOYOTA_CAMRY.jpg"/>
-    <hyperlink ref="C134" r:id="rId133" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/TOYOTA/TOYOTA_COROLLA.jpg"/>
-    <hyperlink ref="C135" r:id="rId134" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/TOYOTA/TOYOTA_HIGHLANDER.jpg"/>
-    <hyperlink ref="C136" r:id="rId135" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/TOYOTA/TOYOTA_LC.jpg"/>
-    <hyperlink ref="C137" r:id="rId136" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/TOYOTA/TOYOTA_RAV4.jpg"/>
-    <hyperlink ref="C138" r:id="rId137" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/TOYOTA/TOYOTA_OTHER.jpg"/>
-    <hyperlink ref="C139" r:id="rId138" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/TOYOTA/TOYOTA_VENZA.jpg"/>
-    <hyperlink ref="C140" r:id="rId139" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/TOYOTA/TOYOTA_VERSO.jpg"/>
-    <hyperlink ref="C141" r:id="rId140" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/VOLKSWAGEN/VOLKSWAGEN_CADDY.jpg"/>
-    <hyperlink ref="C142" r:id="rId141" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/VOLKSWAGEN/VOLKSWAGEN_CARAVELLE.jpg"/>
-    <hyperlink ref="C143" r:id="rId142" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/VOLKSWAGEN/VOLKSWAGEN_GOLF.jpg"/>
-    <hyperlink ref="C144" r:id="rId143" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/VOLKSWAGEN/VOLKSWAGEN_JETTA.jpg"/>
-    <hyperlink ref="C145" r:id="rId144" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/VOLKSWAGEN/VOLKSWAGEN_MULTIVAN.jpg"/>
-    <hyperlink ref="C146" r:id="rId145" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/VOLKSWAGEN/VOLKSWAGEN_PASSAT.jpg"/>
-    <hyperlink ref="C147" r:id="rId146" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/VOLKSWAGEN/VOLKSWAGEN_POLO.jpg"/>
-    <hyperlink ref="C148" r:id="rId147" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/VOLKSWAGEN/VOLKSWAGEN_TIGUAN.jpg"/>
-    <hyperlink ref="C149" r:id="rId148" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/VOLKSWAGEN/VOLKSWAGEN_TOUAREG.jpg"/>
-    <hyperlink ref="C150" r:id="rId149" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/VOLKSWAGEN/VOLKSWAGEN_TOURAN.jpg"/>
-    <hyperlink ref="C151" r:id="rId150" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/VOLKSWAGEN/VOLKSWAGEN_OTHER.jpg"/>
-    <hyperlink ref="C152" r:id="rId151" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/VOLVO/VOLVO_S80.jpg"/>
-    <hyperlink ref="C153" r:id="rId152" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/VOLVO/VOLVO_OTHER.jpg"/>
-    <hyperlink ref="C154" r:id="rId153" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/VOLVO/VOLVO_XC60.jpg"/>
-    <hyperlink ref="C155" r:id="rId154" display="https://raw.githubusercontent.com/bysidby/Motor-insurance/master/CarFoto/VOLVO/VOLVO_XC90.jpg"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C6" r:id="rId5"/>
+    <hyperlink ref="C7" r:id="rId6"/>
+    <hyperlink ref="C8" r:id="rId7"/>
+    <hyperlink ref="C9" r:id="rId8"/>
+    <hyperlink ref="C10" r:id="rId9"/>
+    <hyperlink ref="C11" r:id="rId10"/>
+    <hyperlink ref="C12" r:id="rId11"/>
+    <hyperlink ref="C13" r:id="rId12"/>
+    <hyperlink ref="C14" r:id="rId13"/>
+    <hyperlink ref="C15" r:id="rId14"/>
+    <hyperlink ref="C16" r:id="rId15"/>
+    <hyperlink ref="C17" r:id="rId16"/>
+    <hyperlink ref="C18" r:id="rId17"/>
+    <hyperlink ref="C19" r:id="rId18"/>
+    <hyperlink ref="C20" r:id="rId19"/>
+    <hyperlink ref="C21" r:id="rId20"/>
+    <hyperlink ref="C22" r:id="rId21"/>
+    <hyperlink ref="C23" r:id="rId22"/>
+    <hyperlink ref="C24" r:id="rId23"/>
+    <hyperlink ref="C25" r:id="rId24"/>
+    <hyperlink ref="C26" r:id="rId25"/>
+    <hyperlink ref="C27" r:id="rId26"/>
+    <hyperlink ref="C28" r:id="rId27"/>
+    <hyperlink ref="C29" r:id="rId28"/>
+    <hyperlink ref="C30" r:id="rId29"/>
+    <hyperlink ref="C31" r:id="rId30"/>
+    <hyperlink ref="C32" r:id="rId31"/>
+    <hyperlink ref="C33" r:id="rId32"/>
+    <hyperlink ref="C34" r:id="rId33"/>
+    <hyperlink ref="C35" r:id="rId34"/>
+    <hyperlink ref="C36" r:id="rId35"/>
+    <hyperlink ref="C37" r:id="rId36"/>
+    <hyperlink ref="C38" r:id="rId37"/>
+    <hyperlink ref="C39" r:id="rId38"/>
+    <hyperlink ref="C40" r:id="rId39"/>
+    <hyperlink ref="C41" r:id="rId40"/>
+    <hyperlink ref="C42" r:id="rId41"/>
+    <hyperlink ref="C43" r:id="rId42"/>
+    <hyperlink ref="C44" r:id="rId43"/>
+    <hyperlink ref="C45" r:id="rId44"/>
+    <hyperlink ref="C46" r:id="rId45"/>
+    <hyperlink ref="C47" r:id="rId46"/>
+    <hyperlink ref="C48" r:id="rId47"/>
+    <hyperlink ref="C49" r:id="rId48"/>
+    <hyperlink ref="C50" r:id="rId49"/>
+    <hyperlink ref="C51" r:id="rId50"/>
+    <hyperlink ref="C52" r:id="rId51"/>
+    <hyperlink ref="C53" r:id="rId52"/>
+    <hyperlink ref="C54" r:id="rId53"/>
+    <hyperlink ref="C55" r:id="rId54"/>
+    <hyperlink ref="C56" r:id="rId55"/>
+    <hyperlink ref="C57" r:id="rId56"/>
+    <hyperlink ref="C58" r:id="rId57"/>
+    <hyperlink ref="C59" r:id="rId58"/>
+    <hyperlink ref="C60" r:id="rId59"/>
+    <hyperlink ref="C61" r:id="rId60"/>
+    <hyperlink ref="C62" r:id="rId61"/>
+    <hyperlink ref="C63" r:id="rId62"/>
+    <hyperlink ref="C64" r:id="rId63"/>
+    <hyperlink ref="C65" r:id="rId64"/>
+    <hyperlink ref="C66" r:id="rId65"/>
+    <hyperlink ref="C67" r:id="rId66"/>
+    <hyperlink ref="C68" r:id="rId67"/>
+    <hyperlink ref="C69" r:id="rId68"/>
+    <hyperlink ref="C70" r:id="rId69"/>
+    <hyperlink ref="C71" r:id="rId70"/>
+    <hyperlink ref="C72" r:id="rId71"/>
+    <hyperlink ref="C73" r:id="rId72"/>
+    <hyperlink ref="C74" r:id="rId73"/>
+    <hyperlink ref="C75" r:id="rId74"/>
+    <hyperlink ref="C76" r:id="rId75"/>
+    <hyperlink ref="C77" r:id="rId76"/>
+    <hyperlink ref="C78" r:id="rId77"/>
+    <hyperlink ref="C79" r:id="rId78"/>
+    <hyperlink ref="C80" r:id="rId79"/>
+    <hyperlink ref="C81" r:id="rId80"/>
+    <hyperlink ref="C82" r:id="rId81"/>
+    <hyperlink ref="C83" r:id="rId82"/>
+    <hyperlink ref="C84" r:id="rId83"/>
+    <hyperlink ref="C85" r:id="rId84"/>
+    <hyperlink ref="C86" r:id="rId85"/>
+    <hyperlink ref="C87" r:id="rId86"/>
+    <hyperlink ref="C88" r:id="rId87"/>
+    <hyperlink ref="C89" r:id="rId88"/>
+    <hyperlink ref="C90" r:id="rId89"/>
+    <hyperlink ref="C91" r:id="rId90"/>
+    <hyperlink ref="C92" r:id="rId91"/>
+    <hyperlink ref="C93" r:id="rId92"/>
+    <hyperlink ref="C94" r:id="rId93"/>
+    <hyperlink ref="C95" r:id="rId94"/>
+    <hyperlink ref="C96" r:id="rId95"/>
+    <hyperlink ref="C97" r:id="rId96"/>
+    <hyperlink ref="C98" r:id="rId97"/>
+    <hyperlink ref="C99" r:id="rId98"/>
+    <hyperlink ref="C100" r:id="rId99"/>
+    <hyperlink ref="C101" r:id="rId100"/>
+    <hyperlink ref="C102" r:id="rId101"/>
+    <hyperlink ref="C103" r:id="rId102"/>
+    <hyperlink ref="C104" r:id="rId103"/>
+    <hyperlink ref="C105" r:id="rId104"/>
+    <hyperlink ref="C106" r:id="rId105"/>
+    <hyperlink ref="C107" r:id="rId106"/>
+    <hyperlink ref="C108" r:id="rId107"/>
+    <hyperlink ref="C109" r:id="rId108"/>
+    <hyperlink ref="C110" r:id="rId109"/>
+    <hyperlink ref="C111" r:id="rId110"/>
+    <hyperlink ref="C112" r:id="rId111"/>
+    <hyperlink ref="C113" r:id="rId112"/>
+    <hyperlink ref="C114" r:id="rId113"/>
+    <hyperlink ref="C115" r:id="rId114"/>
+    <hyperlink ref="C116" r:id="rId115"/>
+    <hyperlink ref="C117" r:id="rId116"/>
+    <hyperlink ref="C118" r:id="rId117"/>
+    <hyperlink ref="C119" r:id="rId118"/>
+    <hyperlink ref="C120" r:id="rId119"/>
+    <hyperlink ref="C121" r:id="rId120"/>
+    <hyperlink ref="C122" r:id="rId121"/>
+    <hyperlink ref="C123" r:id="rId122"/>
+    <hyperlink ref="C124" r:id="rId123"/>
+    <hyperlink ref="C125" r:id="rId124"/>
+    <hyperlink ref="C126" r:id="rId125"/>
+    <hyperlink ref="C127" r:id="rId126"/>
+    <hyperlink ref="C128" r:id="rId127"/>
+    <hyperlink ref="C129" r:id="rId128"/>
+    <hyperlink ref="C130" r:id="rId129"/>
+    <hyperlink ref="C131" r:id="rId130"/>
+    <hyperlink ref="C132" r:id="rId131"/>
+    <hyperlink ref="C133" r:id="rId132"/>
+    <hyperlink ref="C134" r:id="rId133"/>
+    <hyperlink ref="C135" r:id="rId134"/>
+    <hyperlink ref="C136" r:id="rId135"/>
+    <hyperlink ref="C137" r:id="rId136"/>
+    <hyperlink ref="C138" r:id="rId137"/>
+    <hyperlink ref="C139" r:id="rId138"/>
+    <hyperlink ref="C140" r:id="rId139"/>
+    <hyperlink ref="C141" r:id="rId140"/>
+    <hyperlink ref="C142" r:id="rId141"/>
+    <hyperlink ref="C143" r:id="rId142"/>
+    <hyperlink ref="C144" r:id="rId143"/>
+    <hyperlink ref="C145" r:id="rId144"/>
+    <hyperlink ref="C146" r:id="rId145"/>
+    <hyperlink ref="C147" r:id="rId146"/>
+    <hyperlink ref="C148" r:id="rId147"/>
+    <hyperlink ref="C149" r:id="rId148"/>
+    <hyperlink ref="C150" r:id="rId149"/>
+    <hyperlink ref="C151" r:id="rId150"/>
+    <hyperlink ref="C152" r:id="rId151"/>
+    <hyperlink ref="C153" r:id="rId152"/>
+    <hyperlink ref="C154" r:id="rId153"/>
+    <hyperlink ref="C155" r:id="rId154"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId155"/>
@@ -3742,7 +3738,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43795083-AEB9-466A-AFF4-9E9C86490908}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D7A3C00-0E6E-4501-8647-23C3D31C3D39}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/PowerBIAddIn"/>
   </ds:schemaRefs>
